--- a/Completed Projects/AIR WAR COLLEGE/Running Bill/Running Bill No 2 (revised-4) on 15 July 24.xlsx
+++ b/Completed Projects/AIR WAR COLLEGE/Running Bill/Running Bill No 2 (revised-4) on 15 July 24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\AIR WAR COLLEGE\Running Bill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F75F8A-22FC-4853-9EEB-9FC819BC5AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C501F8-5FC9-4652-960C-0AEE1A2A986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Third Duct'!$A$1:$T$27</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="87">
   <si>
     <t>PAF AIR WAR COLLEGE, KARACHI</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>15 Nov 2024</t>
+  </si>
+  <si>
+    <t>Tax 8%</t>
   </si>
 </sst>
 </file>
@@ -1960,6 +1963,9 @@
     <xf numFmtId="165" fontId="50" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1981,9 +1987,6 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2050,6 +2053,15 @@
     <xf numFmtId="165" fontId="21" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2065,16 +2077,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="39" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2398,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A12:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2416,8 +2419,8 @@
   </cols>
   <sheetData>
     <row r="12" spans="1:6" s="165" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="192"/>
-      <c r="B12" s="192"/>
+      <c r="A12" s="193"/>
+      <c r="B12" s="193"/>
       <c r="C12" s="173"/>
       <c r="D12" s="172" t="s">
         <v>68</v>
@@ -2427,8 +2430,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="165" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="193"/>
-      <c r="B13" s="193"/>
+      <c r="A13" s="194"/>
+      <c r="B13" s="194"/>
       <c r="C13" s="173"/>
       <c r="D13" s="172" t="s">
         <v>69</v>
@@ -2451,18 +2454,18 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="165" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="194" t="s">
+      <c r="A15" s="195" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="194"/>
-      <c r="C15" s="194"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="170"/>
       <c r="E15" s="170"/>
       <c r="F15" s="171"/>
     </row>
     <row r="16" spans="1:6" s="165" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="194"/>
-      <c r="B16" s="194"/>
+      <c r="A16" s="195"/>
+      <c r="B16" s="195"/>
       <c r="C16" s="169"/>
       <c r="D16" s="170"/>
       <c r="E16" s="170"/>
@@ -2474,8 +2477,8 @@
       </c>
       <c r="B17" s="167"/>
       <c r="C17" s="163"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
       <c r="F17" s="171"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
@@ -2488,20 +2491,20 @@
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="190"/>
-      <c r="B19" s="190"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
+      <c r="A19" s="191"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
     </row>
     <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="191" t="s">
+      <c r="A20" s="192" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="191"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
     </row>
     <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
@@ -2511,13 +2514,13 @@
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="189" t="s">
+      <c r="A22" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="189"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="190"/>
     </row>
     <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
@@ -2625,10 +2628,10 @@
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:10" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="195" t="s">
+      <c r="A30" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="195"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="101">
         <f>SUM(C25:C28)</f>
         <v>1259175.8505600002</v>
@@ -2656,8 +2659,13 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="180"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="19"/>
+      <c r="D32" s="180" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="19">
+        <f>E30*8%</f>
+        <v>131896.4884608</v>
+      </c>
       <c r="I32" s="176"/>
       <c r="J32" s="19"/>
     </row>
@@ -2675,7 +2683,10 @@
       </c>
       <c r="B34" s="22"/>
       <c r="D34" s="176"/>
-      <c r="E34" s="19"/>
+      <c r="E34" s="19">
+        <f>E30-E32</f>
+        <v>1516809.6172992</v>
+      </c>
       <c r="I34" s="177"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2688,16 +2699,23 @@
     </row>
     <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D36" s="176"/>
-      <c r="E36" s="19"/>
+      <c r="E36" s="19">
+        <v>780810</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D37" s="176"/>
-      <c r="E37" s="19"/>
+      <c r="E37" s="19">
+        <v>736000</v>
+      </c>
       <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D38" s="176"/>
-      <c r="E38" s="19"/>
+      <c r="E38" s="19">
+        <f>E37+E36</f>
+        <v>1516810</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G40" s="179"/>
@@ -2710,15 +2728,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -3939,7 +3957,7 @@
       <c r="O2" s="202"/>
     </row>
     <row r="3" spans="1:21" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="223" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="196"/>
@@ -3947,20 +3965,20 @@
       <c r="D3" s="196"/>
       <c r="E3" s="196"/>
       <c r="F3" s="196"/>
-      <c r="G3" s="221" t="s">
+      <c r="G3" s="224" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="222"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="225"/>
     </row>
     <row r="4" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="220"/>
+      <c r="A4" s="223"/>
       <c r="B4" s="196"/>
       <c r="C4" s="196"/>
       <c r="D4" s="196"/>
@@ -3977,43 +3995,43 @@
       <c r="O4" s="202"/>
     </row>
     <row r="5" spans="1:21" s="21" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="225" t="s">
+      <c r="A5" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="226" t="s">
+      <c r="D5" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223" t="s">
+      <c r="F5" s="220"/>
+      <c r="G5" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223" t="s">
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="224" t="s">
+      <c r="L5" s="220"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="226" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="21" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="225"/>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
+      <c r="A6" s="218"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
       <c r="E6" s="122" t="s">
         <v>39</v>
       </c>
@@ -4044,7 +4062,7 @@
       <c r="N6" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="224"/>
+      <c r="O6" s="226"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="126"/>
@@ -4802,14 +4820,14 @@
       <c r="X26" s="21"/>
     </row>
     <row r="27" spans="1:24" s="69" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="218" t="s">
+      <c r="A27" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="218"/>
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="218"/>
+      <c r="B27" s="221"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
       <c r="G27" s="120"/>
       <c r="H27" s="120"/>
       <c r="I27" s="120"/>
@@ -4851,86 +4869,86 @@
       <c r="X27" s="185"/>
     </row>
     <row r="28" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="219" t="s">
+      <c r="A28" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="219"/>
-      <c r="C28" s="219"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="219"/>
-      <c r="L28" s="219"/>
-      <c r="M28" s="219"/>
-      <c r="N28" s="219"/>
+      <c r="B28" s="222"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="222"/>
+      <c r="E28" s="222"/>
+      <c r="F28" s="222"/>
+      <c r="G28" s="222"/>
+      <c r="H28" s="222"/>
+      <c r="I28" s="222"/>
+      <c r="J28" s="222"/>
+      <c r="K28" s="222"/>
+      <c r="L28" s="222"/>
+      <c r="M28" s="222"/>
+      <c r="N28" s="222"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="219"/>
-      <c r="B29" s="219"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="219"/>
-      <c r="M29" s="219"/>
-      <c r="N29" s="219"/>
+      <c r="A29" s="222"/>
+      <c r="B29" s="222"/>
+      <c r="C29" s="222"/>
+      <c r="D29" s="222"/>
+      <c r="E29" s="222"/>
+      <c r="F29" s="222"/>
+      <c r="G29" s="222"/>
+      <c r="H29" s="222"/>
+      <c r="I29" s="222"/>
+      <c r="J29" s="222"/>
+      <c r="K29" s="222"/>
+      <c r="L29" s="222"/>
+      <c r="M29" s="222"/>
+      <c r="N29" s="222"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="219"/>
-      <c r="B30" s="219"/>
-      <c r="C30" s="219"/>
-      <c r="D30" s="219"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="219"/>
-      <c r="L30" s="219"/>
-      <c r="M30" s="219"/>
-      <c r="N30" s="219"/>
+      <c r="A30" s="222"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="222"/>
+      <c r="F30" s="222"/>
+      <c r="G30" s="222"/>
+      <c r="H30" s="222"/>
+      <c r="I30" s="222"/>
+      <c r="J30" s="222"/>
+      <c r="K30" s="222"/>
+      <c r="L30" s="222"/>
+      <c r="M30" s="222"/>
+      <c r="N30" s="222"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="219"/>
-      <c r="B31" s="219"/>
-      <c r="C31" s="219"/>
-      <c r="D31" s="219"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="219"/>
-      <c r="L31" s="219"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="219"/>
+      <c r="A31" s="222"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="222"/>
+      <c r="F31" s="222"/>
+      <c r="G31" s="222"/>
+      <c r="H31" s="222"/>
+      <c r="I31" s="222"/>
+      <c r="J31" s="222"/>
+      <c r="K31" s="222"/>
+      <c r="L31" s="222"/>
+      <c r="M31" s="222"/>
+      <c r="N31" s="222"/>
     </row>
     <row r="32" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="219"/>
-      <c r="B32" s="219"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="219"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="219"/>
-      <c r="L32" s="219"/>
-      <c r="M32" s="219"/>
-      <c r="N32" s="219"/>
+      <c r="A32" s="222"/>
+      <c r="B32" s="222"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="222"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="222"/>
+      <c r="H32" s="222"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="222"/>
+      <c r="K32" s="222"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="222"/>
+      <c r="N32" s="222"/>
     </row>
     <row r="33" spans="6:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N33" s="7">
@@ -4959,12 +4977,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A28:N32"/>
     <mergeCell ref="A3:F4"/>
@@ -4972,6 +4984,12 @@
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="O5:O6"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -5045,7 +5063,7 @@
       <c r="O2" s="202"/>
     </row>
     <row r="3" spans="1:21" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="223" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="196"/>
@@ -5053,20 +5071,20 @@
       <c r="D3" s="196"/>
       <c r="E3" s="196"/>
       <c r="F3" s="196"/>
-      <c r="G3" s="221" t="s">
+      <c r="G3" s="224" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="222"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="225"/>
     </row>
     <row r="4" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="220"/>
+      <c r="A4" s="223"/>
       <c r="B4" s="196"/>
       <c r="C4" s="196"/>
       <c r="D4" s="196"/>
@@ -5083,43 +5101,43 @@
       <c r="O4" s="202"/>
     </row>
     <row r="5" spans="1:21" s="21" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="225" t="s">
+      <c r="A5" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="226" t="s">
+      <c r="D5" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223" t="s">
+      <c r="F5" s="220"/>
+      <c r="G5" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223" t="s">
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="224" t="s">
+      <c r="L5" s="220"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="226" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="21" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="225"/>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
+      <c r="A6" s="218"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
       <c r="E6" s="122" t="s">
         <v>39</v>
       </c>
@@ -5150,7 +5168,7 @@
       <c r="N6" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="224"/>
+      <c r="O6" s="226"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="134"/>
@@ -5909,14 +5927,14 @@
       <c r="X26" s="69"/>
     </row>
     <row r="27" spans="1:24" s="69" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="218" t="s">
+      <c r="A27" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="218"/>
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="218"/>
+      <c r="B27" s="221"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
       <c r="G27" s="120"/>
       <c r="H27" s="120"/>
       <c r="I27" s="120"/>
@@ -5945,7 +5963,7 @@
       <c r="X27" s="186"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="219" t="s">
+      <c r="A28" s="222" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="227"/>
@@ -6146,7 +6164,7 @@
       <c r="O2" s="202"/>
     </row>
     <row r="3" spans="1:18" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="223" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="196"/>
@@ -6154,20 +6172,20 @@
       <c r="D3" s="196"/>
       <c r="E3" s="196"/>
       <c r="F3" s="196"/>
-      <c r="G3" s="221" t="s">
+      <c r="G3" s="224" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="222"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="225"/>
     </row>
     <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="220"/>
+      <c r="A4" s="223"/>
       <c r="B4" s="196"/>
       <c r="C4" s="196"/>
       <c r="D4" s="196"/>
@@ -6184,43 +6202,43 @@
       <c r="O4" s="202"/>
     </row>
     <row r="5" spans="1:18" s="21" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="225" t="s">
+      <c r="A5" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="226" t="s">
+      <c r="D5" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223" t="s">
+      <c r="F5" s="220"/>
+      <c r="G5" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223" t="s">
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="224" t="s">
+      <c r="L5" s="220"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="226" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="21" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="225"/>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
+      <c r="A6" s="218"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
       <c r="E6" s="122" t="s">
         <v>39</v>
       </c>
@@ -6251,7 +6269,7 @@
       <c r="N6" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="224"/>
+      <c r="O6" s="226"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="108"/>
@@ -7058,14 +7076,14 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" s="69" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="218" t="s">
+      <c r="A27" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="218"/>
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="218"/>
+      <c r="B27" s="221"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
       <c r="G27" s="120"/>
       <c r="H27" s="120"/>
       <c r="I27" s="120"/>
@@ -7107,7 +7125,7 @@
       <c r="V27" s="187"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="219" t="s">
+      <c r="A28" s="222" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="227"/>
